--- a/Team-Data/2007-08/12-13-2007-08.xlsx
+++ b/Team-Data/2007-08/12-13-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -783,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -977,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1156,13 +1223,13 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-4</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
@@ -1323,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -1484,13 +1551,13 @@
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>24</v>
@@ -1529,10 +1596,10 @@
         <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -2093,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2212,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
@@ -2406,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>11</v>
@@ -2442,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2785,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,76 +2935,76 @@
         <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
         <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
       </c>
       <c r="S14" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
         <v>4.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR14" t="n">
         <v>18</v>
@@ -2976,19 +3043,19 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>16</v>
@@ -2997,10 +3064,10 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>16</v>
@@ -3137,13 +3204,13 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3170,13 +3237,13 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.273</v>
+        <v>0.286</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J16" t="n">
-        <v>76.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K16" t="n">
         <v>0.463</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="R16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T16" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3349,19 +3416,19 @@
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-4</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3504,7 +3571,7 @@
         <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3892,10 +3959,10 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3907,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
@@ -4447,7 +4514,7 @@
         <v>18</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4623,13 +4690,13 @@
         <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -4954,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>21</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
@@ -5145,7 +5212,7 @@
         <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.773</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J27" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.472</v>
+        <v>0.475</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.404</v>
+        <v>0.407</v>
       </c>
       <c r="O27" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
         <v>0.769</v>
       </c>
       <c r="R27" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S27" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="U27" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V27" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5309,7 +5376,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
@@ -5321,46 +5388,46 @@
         <v>4</v>
       </c>
       <c r="AM27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>5</v>
@@ -5536,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5545,7 +5612,7 @@
         <v>22</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
@@ -5703,7 +5770,7 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5712,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.453</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O31" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="P31" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R31" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T31" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U31" t="n">
         <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
@@ -6010,31 +6077,31 @@
         <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>7</v>
@@ -6046,22 +6113,22 @@
         <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
         <v>4</v>
@@ -6082,10 +6149,10 @@
         <v>13</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-13-2007-08</t>
+          <t>2007-12-13</t>
         </is>
       </c>
     </row>
